--- a/biology/Botanique/Carthame/Carthame.xlsx
+++ b/biology/Botanique/Carthame/Carthame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carthamus
 Le genre botanique Carthamus (les carthames) regroupe des plantes presque toutes méditerranéennes, de la famille des Astéracées (ou Composées), assez proches des chardons. Ce sont des plantes annuelles ou vivaces, le plus souvent très épineuses. Les capitules sont solitaires, entourés d'un involucre de bractées épineuses, avec de nombreuses bractées externes foliacées. Les fleurs sont toutes tubulées, à lobes profonds. L'huile de carthame est une huile alimentaire.
-Le nom Carthamus est un emprunt à l'arabe qurtum (قرطم)[1] et correspond à une racine sémitique signifiant « teindre ». Le terme est lié aux vertus tinctoriales des fleurs de Carthamus tinctorius, aux propriétés assez semblables à celles du safran.
+Le nom Carthamus est un emprunt à l'arabe qurtum (قرطم) et correspond à une racine sémitique signifiant « teindre ». Le terme est lié aux vertus tinctoriales des fleurs de Carthamus tinctorius, aux propriétés assez semblables à celles du safran.
 </t>
         </is>
       </c>
@@ -513,17 +525,19 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre comprend plusieurs espèces, telles que Carthamus arborescens L. (carthame arborescent), plante du sud de l'Espagne et du nord-ouest de l'Afrique, Carthamus boissieri Halácsy, plante des îles grecques, Carthamus dentatus (Forssk.) Vahl, plante des Balkans et de la Turquie, Carthamus lanatus L. (carthame laineux), présent dans tout le bassin méditerranéen et, plus rarement, sur le reste du territoire français, Carthamus tenuis (Boiss. et Blanche) Bornm., de la Méditerranée orientale et Carthamus tinctorius L., carthame des teinturiers.
-La fleur séchée est vendue comme safran par certains grossistes ou détaillants malhonnêtes[2].
-Selon ITIS      (30 juin 2013)[3] :
+La fleur séchée est vendue comme safran par certains grossistes ou détaillants malhonnêtes.
+Selon ITIS      (30 juin 2013) :
 Carthamus creticus L.
 Carthamus lanatus L.
 Carthamus leucocaulos Sm.
 Carthamus oxyacanthus M. Bieb.
 Carthamus tinctorius L.
-Selon NCBI  (30 juin 2013)[4] :
+Selon NCBI  (30 juin 2013) :
 Carthamus alexandrinus
 Carthamus anatolicus
 Carthamus arborescens
@@ -545,7 +559,7 @@
 Carthamus tenuis
 Carthamus tinctorius
 Carthamus turkestanicus
-Selon Tropicos                                           (30 juin 2013)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (30 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 Carthamus alexandrinus Asch.
 Carthamus anatolicus Sam.
 Carthamus arborescens L.
@@ -605,9 +619,11 @@
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 8e jour du mois de thermidor du calendrier républicain  / révolutionnaire français est dénommé jour du carthame[6], généralement chaque 26 juillet du calendrier grégorien.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 8e jour du mois de thermidor du calendrier républicain  / révolutionnaire français est dénommé jour du carthame, généralement chaque 26 juillet du calendrier grégorien.
 </t>
         </is>
       </c>
